--- a/natmiOut/OldD4/LR-pairs_lrc2p/Jag2-Notch3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Jag2-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H2">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I2">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J2">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.70468916187764</v>
+        <v>8.819868333333334</v>
       </c>
       <c r="N2">
-        <v>6.70468916187764</v>
+        <v>26.459605</v>
       </c>
       <c r="O2">
-        <v>0.0466399255592423</v>
+        <v>0.06009452733181694</v>
       </c>
       <c r="P2">
-        <v>0.0466399255592423</v>
+        <v>0.08592393201160566</v>
       </c>
       <c r="Q2">
-        <v>124.2958561947227</v>
+        <v>165.3144671168056</v>
       </c>
       <c r="R2">
-        <v>124.2958561947227</v>
+        <v>1487.83020405125</v>
       </c>
       <c r="S2">
-        <v>0.03661425182177369</v>
+        <v>0.04562954413373334</v>
       </c>
       <c r="T2">
-        <v>0.03661425182177369</v>
+        <v>0.06633503085535677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H3">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I3">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J3">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.10002533935425</v>
+        <v>5.485874</v>
       </c>
       <c r="N3">
-        <v>5.10002533935425</v>
+        <v>16.457622</v>
       </c>
       <c r="O3">
-        <v>0.0354773795525396</v>
+        <v>0.03737822295894862</v>
       </c>
       <c r="P3">
-        <v>0.0354773795525396</v>
+        <v>0.05344386636915803</v>
       </c>
       <c r="Q3">
-        <v>94.54756229031373</v>
+        <v>102.8240221628333</v>
       </c>
       <c r="R3">
-        <v>94.54756229031373</v>
+        <v>925.4161994655</v>
       </c>
       <c r="S3">
-        <v>0.02785119601581184</v>
+        <v>0.02838114134301327</v>
       </c>
       <c r="T3">
-        <v>0.02785119601581184</v>
+        <v>0.0412597566432227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H4">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I4">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J4">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>131.949570727232</v>
+        <v>0.06916233333333334</v>
       </c>
       <c r="N4">
-        <v>131.949570727232</v>
+        <v>0.207487</v>
       </c>
       <c r="O4">
-        <v>0.9178826948882181</v>
+        <v>0.0004712403375823903</v>
       </c>
       <c r="P4">
-        <v>0.9178826948882181</v>
+        <v>0.0006737855263255828</v>
       </c>
       <c r="Q4">
-        <v>2446.166328085879</v>
+        <v>1.296338431305555</v>
       </c>
       <c r="R4">
-        <v>2446.166328085879</v>
+        <v>11.66704588175</v>
       </c>
       <c r="S4">
-        <v>0.7205755097271099</v>
+        <v>0.000357810981066268</v>
       </c>
       <c r="T4">
-        <v>0.7205755097271099</v>
+        <v>0.0005201761911066099</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.612689450498111</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H5">
-        <v>0.612689450498111</v>
+        <v>56.23025</v>
       </c>
       <c r="I5">
-        <v>0.02594506219193011</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J5">
-        <v>0.02594506219193011</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.70468916187764</v>
+        <v>0.03413666666666667</v>
       </c>
       <c r="N5">
-        <v>6.70468916187764</v>
+        <v>0.10241</v>
       </c>
       <c r="O5">
-        <v>0.0466399255592423</v>
+        <v>0.0002325915501781441</v>
       </c>
       <c r="P5">
-        <v>0.0466399255592423</v>
+        <v>0.0003325624051193711</v>
       </c>
       <c r="Q5">
-        <v>4.107892318351452</v>
+        <v>0.6398377669444444</v>
       </c>
       <c r="R5">
-        <v>4.107892318351452</v>
+        <v>5.7585399025</v>
       </c>
       <c r="S5">
-        <v>0.001210075769261532</v>
+        <v>0.0001766058720353396</v>
       </c>
       <c r="T5">
-        <v>0.001210075769261532</v>
+        <v>0.0002567449706787795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.612689450498111</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H6">
-        <v>0.612689450498111</v>
+        <v>56.23025</v>
       </c>
       <c r="I6">
-        <v>0.02594506219193011</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J6">
-        <v>0.02594506219193011</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.10002533935425</v>
+        <v>132.35754</v>
       </c>
       <c r="N6">
-        <v>5.10002533935425</v>
+        <v>264.71508</v>
       </c>
       <c r="O6">
-        <v>0.0354773795525396</v>
+        <v>0.9018234178214739</v>
       </c>
       <c r="P6">
-        <v>0.0354773795525396</v>
+        <v>0.8596258536877913</v>
       </c>
       <c r="Q6">
-        <v>3.124731722695397</v>
+        <v>2480.832521195</v>
       </c>
       <c r="R6">
-        <v>3.124731722695397</v>
+        <v>14884.99512717</v>
       </c>
       <c r="S6">
-        <v>0.0009204628188973494</v>
+        <v>0.6847510625569477</v>
       </c>
       <c r="T6">
-        <v>0.0009204628188973494</v>
+        <v>0.663648720367452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H7">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I7">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J7">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>131.949570727232</v>
+        <v>8.819868333333334</v>
       </c>
       <c r="N7">
-        <v>131.949570727232</v>
+        <v>26.459605</v>
       </c>
       <c r="O7">
-        <v>0.9178826948882181</v>
+        <v>0.06009452733181694</v>
       </c>
       <c r="P7">
-        <v>0.9178826948882181</v>
+        <v>0.08592393201160566</v>
       </c>
       <c r="Q7">
-        <v>80.8441099823294</v>
+        <v>5.799507362539445</v>
       </c>
       <c r="R7">
-        <v>80.8441099823294</v>
+        <v>52.195566262855</v>
       </c>
       <c r="S7">
-        <v>0.02381452360377122</v>
+        <v>0.001600760549080846</v>
       </c>
       <c r="T7">
-        <v>0.02381452360377122</v>
+        <v>0.002327143573998878</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.0396377346745</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H8">
-        <v>1.0396377346745</v>
+        <v>1.972651</v>
       </c>
       <c r="I8">
-        <v>0.0440246941762716</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J8">
-        <v>0.0440246941762716</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.70468916187764</v>
+        <v>5.485874</v>
       </c>
       <c r="N8">
-        <v>6.70468916187764</v>
+        <v>16.457622</v>
       </c>
       <c r="O8">
-        <v>0.0466399255592423</v>
+        <v>0.03737822295894862</v>
       </c>
       <c r="P8">
-        <v>0.0466399255592423</v>
+        <v>0.05344386636915803</v>
       </c>
       <c r="Q8">
-        <v>6.970447851951143</v>
+        <v>3.607238277324667</v>
       </c>
       <c r="R8">
-        <v>6.970447851951143</v>
+        <v>32.465144495922</v>
       </c>
       <c r="S8">
-        <v>0.002053308459149715</v>
+        <v>0.0009956577972076682</v>
       </c>
       <c r="T8">
-        <v>0.002053308459149715</v>
+        <v>0.001447461112159557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.0396377346745</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H9">
-        <v>1.0396377346745</v>
+        <v>1.972651</v>
       </c>
       <c r="I9">
-        <v>0.0440246941762716</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J9">
-        <v>0.0440246941762716</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.10002533935425</v>
+        <v>0.06916233333333334</v>
       </c>
       <c r="N9">
-        <v>5.10002533935425</v>
+        <v>0.207487</v>
       </c>
       <c r="O9">
-        <v>0.0354773795525396</v>
+        <v>0.0004712403375823903</v>
       </c>
       <c r="P9">
-        <v>0.0354773795525396</v>
+        <v>0.0006737855263255828</v>
       </c>
       <c r="Q9">
-        <v>5.302178790588801</v>
+        <v>0.04547771533744445</v>
       </c>
       <c r="R9">
-        <v>5.302178790588801</v>
+        <v>0.409299438037</v>
       </c>
       <c r="S9">
-        <v>0.001561880784976067</v>
+        <v>1.255260628596449E-05</v>
       </c>
       <c r="T9">
-        <v>0.001561880784976067</v>
+        <v>1.824864878891069E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.0396377346745</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H10">
-        <v>1.0396377346745</v>
+        <v>1.972651</v>
       </c>
       <c r="I10">
-        <v>0.0440246941762716</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J10">
-        <v>0.0440246941762716</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>131.949570727232</v>
+        <v>0.03413666666666667</v>
       </c>
       <c r="N10">
-        <v>131.949570727232</v>
+        <v>0.10241</v>
       </c>
       <c r="O10">
-        <v>0.9178826948882181</v>
+        <v>0.0002325915501781441</v>
       </c>
       <c r="P10">
-        <v>0.9178826948882181</v>
+        <v>0.0003325624051193711</v>
       </c>
       <c r="Q10">
-        <v>137.1797528021322</v>
+        <v>0.02244657654555556</v>
       </c>
       <c r="R10">
-        <v>137.1797528021322</v>
+        <v>0.20201918891</v>
       </c>
       <c r="S10">
-        <v>0.04040950493214581</v>
+        <v>6.195628688764228E-06</v>
       </c>
       <c r="T10">
-        <v>0.04040950493214581</v>
+        <v>9.00704199526883E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.27612689796967</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H11">
-        <v>2.27612689796967</v>
+        <v>1.972651</v>
       </c>
       <c r="I11">
-        <v>0.09638529580774968</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J11">
-        <v>0.09638529580774968</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.70468916187764</v>
+        <v>132.35754</v>
       </c>
       <c r="N11">
-        <v>6.70468916187764</v>
+        <v>264.71508</v>
       </c>
       <c r="O11">
-        <v>0.0466399255592423</v>
+        <v>0.9018234178214739</v>
       </c>
       <c r="P11">
-        <v>0.0466399255592423</v>
+        <v>0.8596258536877913</v>
       </c>
       <c r="Q11">
-        <v>15.26072334387542</v>
+        <v>87.03174454618001</v>
       </c>
       <c r="R11">
-        <v>15.26072334387542</v>
+        <v>522.1904672770801</v>
       </c>
       <c r="S11">
-        <v>0.004495403021478994</v>
+        <v>0.02402220990132581</v>
       </c>
       <c r="T11">
-        <v>0.004495403021478994</v>
+        <v>0.02328190452437211</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.27612689796967</v>
+        <v>1.780015</v>
       </c>
       <c r="H12">
-        <v>2.27612689796967</v>
+        <v>5.340045</v>
       </c>
       <c r="I12">
-        <v>0.09638529580774968</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J12">
-        <v>0.09638529580774968</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.10002533935425</v>
+        <v>8.819868333333334</v>
       </c>
       <c r="N12">
-        <v>5.10002533935425</v>
+        <v>26.459605</v>
       </c>
       <c r="O12">
-        <v>0.0354773795525396</v>
+        <v>0.06009452733181694</v>
       </c>
       <c r="P12">
-        <v>0.0354773795525396</v>
+        <v>0.08592393201160566</v>
       </c>
       <c r="Q12">
-        <v>11.6083048552311</v>
+        <v>15.69949793135833</v>
       </c>
       <c r="R12">
-        <v>11.6083048552311</v>
+        <v>141.295481382225</v>
       </c>
       <c r="S12">
-        <v>0.003419497722655339</v>
+        <v>0.004333322704480632</v>
       </c>
       <c r="T12">
-        <v>0.003419497722655339</v>
+        <v>0.006299670548219041</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.27612689796967</v>
+        <v>1.780015</v>
       </c>
       <c r="H13">
-        <v>2.27612689796967</v>
+        <v>5.340045</v>
       </c>
       <c r="I13">
-        <v>0.09638529580774968</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J13">
-        <v>0.09638529580774968</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>131.949570727232</v>
+        <v>5.485874</v>
       </c>
       <c r="N13">
-        <v>131.949570727232</v>
+        <v>16.457622</v>
       </c>
       <c r="O13">
-        <v>0.9178826948882181</v>
+        <v>0.03737822295894862</v>
       </c>
       <c r="P13">
-        <v>0.9178826948882181</v>
+        <v>0.05344386636915803</v>
       </c>
       <c r="Q13">
-        <v>300.3339671078041</v>
+        <v>9.764938008109999</v>
       </c>
       <c r="R13">
-        <v>300.3339671078041</v>
+        <v>87.88444207299</v>
       </c>
       <c r="S13">
-        <v>0.08847039506361534</v>
+        <v>0.00269528540106173</v>
       </c>
       <c r="T13">
-        <v>0.08847039506361534</v>
+        <v>0.003918335009427456</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.14777724808388</v>
+        <v>1.780015</v>
       </c>
       <c r="H14">
-        <v>1.14777724808388</v>
+        <v>5.340045</v>
       </c>
       <c r="I14">
-        <v>0.04860399025935321</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J14">
-        <v>0.04860399025935321</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.70468916187764</v>
+        <v>0.06916233333333334</v>
       </c>
       <c r="N14">
-        <v>6.70468916187764</v>
+        <v>0.207487</v>
       </c>
       <c r="O14">
-        <v>0.0466399255592423</v>
+        <v>0.0004712403375823903</v>
       </c>
       <c r="P14">
-        <v>0.0466399255592423</v>
+        <v>0.0006737855263255828</v>
       </c>
       <c r="Q14">
-        <v>7.695489675477734</v>
+        <v>0.1231099907683333</v>
       </c>
       <c r="R14">
-        <v>7.695489675477734</v>
+        <v>1.107989916915</v>
       </c>
       <c r="S14">
-        <v>0.002266886487578371</v>
+        <v>3.398040628288189E-05</v>
       </c>
       <c r="T14">
-        <v>0.002266886487578371</v>
+        <v>4.939982070927831E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.14777724808388</v>
+        <v>1.780015</v>
       </c>
       <c r="H15">
-        <v>1.14777724808388</v>
+        <v>5.340045</v>
       </c>
       <c r="I15">
-        <v>0.04860399025935321</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J15">
-        <v>0.04860399025935321</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>5.10002533935425</v>
+        <v>0.03413666666666667</v>
       </c>
       <c r="N15">
-        <v>5.10002533935425</v>
+        <v>0.10241</v>
       </c>
       <c r="O15">
-        <v>0.0354773795525396</v>
+        <v>0.0002325915501781441</v>
       </c>
       <c r="P15">
-        <v>0.0354773795525396</v>
+        <v>0.0003325624051193711</v>
       </c>
       <c r="Q15">
-        <v>5.853693049162077</v>
+        <v>0.06076377871666667</v>
       </c>
       <c r="R15">
-        <v>5.853693049162077</v>
+        <v>0.54687400845</v>
       </c>
       <c r="S15">
-        <v>0.001724342210199011</v>
+        <v>1.677181417356236E-05</v>
       </c>
       <c r="T15">
-        <v>0.001724342210199011</v>
+        <v>2.438242221843871E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.14777724808388</v>
+        <v>1.780015</v>
       </c>
       <c r="H16">
-        <v>1.14777724808388</v>
+        <v>5.340045</v>
       </c>
       <c r="I16">
-        <v>0.04860399025935321</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J16">
-        <v>0.04860399025935321</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>131.949570727232</v>
+        <v>132.35754</v>
       </c>
       <c r="N16">
-        <v>131.949570727232</v>
+        <v>264.71508</v>
       </c>
       <c r="O16">
-        <v>0.9178826948882181</v>
+        <v>0.9018234178214739</v>
       </c>
       <c r="P16">
-        <v>0.9178826948882181</v>
+        <v>0.8596258536877913</v>
       </c>
       <c r="Q16">
-        <v>151.4487151751516</v>
+        <v>235.5984065631</v>
       </c>
       <c r="R16">
-        <v>151.4487151751516</v>
+        <v>1413.5904393786</v>
       </c>
       <c r="S16">
-        <v>0.04461276156157582</v>
+        <v>0.06502908110584457</v>
       </c>
       <c r="T16">
-        <v>0.04461276156157582</v>
+        <v>0.06302504489940221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.283699333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.851098</v>
+      </c>
+      <c r="I17">
+        <v>0.09251270333430135</v>
+      </c>
+      <c r="J17">
+        <v>0.09406302865933584</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.819868333333334</v>
+      </c>
+      <c r="N17">
+        <v>26.459605</v>
+      </c>
+      <c r="O17">
+        <v>0.06009452733181694</v>
+      </c>
+      <c r="P17">
+        <v>0.08592393201160566</v>
+      </c>
+      <c r="Q17">
+        <v>20.14192743292111</v>
+      </c>
+      <c r="R17">
+        <v>181.27734689629</v>
+      </c>
+      <c r="S17">
+        <v>0.005559507179063445</v>
+      </c>
+      <c r="T17">
+        <v>0.008082265279330487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.283699333333333</v>
+      </c>
+      <c r="H18">
+        <v>6.851098</v>
+      </c>
+      <c r="I18">
+        <v>0.09251270333430135</v>
+      </c>
+      <c r="J18">
+        <v>0.09406302865933584</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.485874</v>
+      </c>
+      <c r="N18">
+        <v>16.457622</v>
+      </c>
+      <c r="O18">
+        <v>0.03737822295894862</v>
+      </c>
+      <c r="P18">
+        <v>0.05344386636915803</v>
+      </c>
+      <c r="Q18">
+        <v>12.52808679655067</v>
+      </c>
+      <c r="R18">
+        <v>112.752781168956</v>
+      </c>
+      <c r="S18">
+        <v>0.003457960451764585</v>
+      </c>
+      <c r="T18">
+        <v>0.005027091933947827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.283699333333333</v>
+      </c>
+      <c r="H19">
+        <v>6.851098</v>
+      </c>
+      <c r="I19">
+        <v>0.09251270333430135</v>
+      </c>
+      <c r="J19">
+        <v>0.09406302865933584</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.06916233333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.207487</v>
+      </c>
+      <c r="O19">
+        <v>0.0004712403375823903</v>
+      </c>
+      <c r="P19">
+        <v>0.0006737855263255828</v>
+      </c>
+      <c r="Q19">
+        <v>0.1579459745251111</v>
+      </c>
+      <c r="R19">
+        <v>1.421513770726</v>
+      </c>
+      <c r="S19">
+        <v>4.359571754991569E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.337830727300899E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.283699333333333</v>
+      </c>
+      <c r="H20">
+        <v>6.851098</v>
+      </c>
+      <c r="I20">
+        <v>0.09251270333430135</v>
+      </c>
+      <c r="J20">
+        <v>0.09406302865933584</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03413666666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.10241</v>
+      </c>
+      <c r="O20">
+        <v>0.0002325915501781441</v>
+      </c>
+      <c r="P20">
+        <v>0.0003325624051193711</v>
+      </c>
+      <c r="Q20">
+        <v>0.0779578829088889</v>
+      </c>
+      <c r="R20">
+        <v>0.70162094618</v>
+      </c>
+      <c r="S20">
+        <v>2.151767307969591E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.128182704376106E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.283699333333333</v>
+      </c>
+      <c r="H21">
+        <v>6.851098</v>
+      </c>
+      <c r="I21">
+        <v>0.09251270333430135</v>
+      </c>
+      <c r="J21">
+        <v>0.09406302865933584</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>132.35754</v>
+      </c>
+      <c r="N21">
+        <v>264.71508</v>
+      </c>
+      <c r="O21">
+        <v>0.9018234178214739</v>
+      </c>
+      <c r="P21">
+        <v>0.8596258536877913</v>
+      </c>
+      <c r="Q21">
+        <v>302.26482585964</v>
+      </c>
+      <c r="R21">
+        <v>1813.58895515784</v>
+      </c>
+      <c r="S21">
+        <v>0.0834301223128437</v>
+      </c>
+      <c r="T21">
+        <v>0.08085901131174075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.22057</v>
+      </c>
+      <c r="H22">
+        <v>2.44114</v>
+      </c>
+      <c r="I22">
+        <v>0.04944531386447028</v>
+      </c>
+      <c r="J22">
+        <v>0.03351594471155588</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.819868333333334</v>
+      </c>
+      <c r="N22">
+        <v>26.459605</v>
+      </c>
+      <c r="O22">
+        <v>0.06009452733181694</v>
+      </c>
+      <c r="P22">
+        <v>0.08592393201160566</v>
+      </c>
+      <c r="Q22">
+        <v>10.76526669161667</v>
+      </c>
+      <c r="R22">
+        <v>64.5916001497</v>
+      </c>
+      <c r="S22">
+        <v>0.002971392765458676</v>
+      </c>
+      <c r="T22">
+        <v>0.002879821754700462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.22057</v>
+      </c>
+      <c r="H23">
+        <v>2.44114</v>
+      </c>
+      <c r="I23">
+        <v>0.04944531386447028</v>
+      </c>
+      <c r="J23">
+        <v>0.03351594471155588</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.485874</v>
+      </c>
+      <c r="N23">
+        <v>16.457622</v>
+      </c>
+      <c r="O23">
+        <v>0.03737822295894862</v>
+      </c>
+      <c r="P23">
+        <v>0.05344386636915803</v>
+      </c>
+      <c r="Q23">
+        <v>6.695893228179999</v>
+      </c>
+      <c r="R23">
+        <v>40.17535936908</v>
+      </c>
+      <c r="S23">
+        <v>0.001848177965901363</v>
+      </c>
+      <c r="T23">
+        <v>0.001791221670400481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.22057</v>
+      </c>
+      <c r="H24">
+        <v>2.44114</v>
+      </c>
+      <c r="I24">
+        <v>0.04944531386447028</v>
+      </c>
+      <c r="J24">
+        <v>0.03351594471155588</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.06916233333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.207487</v>
+      </c>
+      <c r="O24">
+        <v>0.0004712403375823903</v>
+      </c>
+      <c r="P24">
+        <v>0.0006737855263255828</v>
+      </c>
+      <c r="Q24">
+        <v>0.08441746919666666</v>
+      </c>
+      <c r="R24">
+        <v>0.50650481518</v>
+      </c>
+      <c r="S24">
+        <v>2.330062639736021E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.258255844777481E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.22057</v>
+      </c>
+      <c r="H25">
+        <v>2.44114</v>
+      </c>
+      <c r="I25">
+        <v>0.04944531386447028</v>
+      </c>
+      <c r="J25">
+        <v>0.03351594471155588</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.03413666666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.10241</v>
+      </c>
+      <c r="O25">
+        <v>0.0002325915501781441</v>
+      </c>
+      <c r="P25">
+        <v>0.0003325624051193711</v>
+      </c>
+      <c r="Q25">
+        <v>0.04166619123333334</v>
+      </c>
+      <c r="R25">
+        <v>0.2499971474</v>
+      </c>
+      <c r="S25">
+        <v>1.150056220078202E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.114614318312289E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.22057</v>
+      </c>
+      <c r="H26">
+        <v>2.44114</v>
+      </c>
+      <c r="I26">
+        <v>0.04944531386447028</v>
+      </c>
+      <c r="J26">
+        <v>0.03351594471155588</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>132.35754</v>
+      </c>
+      <c r="N26">
+        <v>264.71508</v>
+      </c>
+      <c r="O26">
+        <v>0.9018234178214739</v>
+      </c>
+      <c r="P26">
+        <v>0.8596258536877913</v>
+      </c>
+      <c r="Q26">
+        <v>161.5516425978</v>
+      </c>
+      <c r="R26">
+        <v>646.2065703912</v>
+      </c>
+      <c r="S26">
+        <v>0.0445909419445121</v>
+      </c>
+      <c r="T26">
+        <v>0.02881117258482404</v>
       </c>
     </row>
   </sheetData>
